--- a/data/infectado1_peptidos.xlsx
+++ b/data/infectado1_peptidos.xlsx
@@ -1,53 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciomy\OneDrive\Escritorio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1557C2E-99A3-44AD-9444-63D9E5DE08F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluación NS1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="7">
-  <si>
-    <t>Péptido</t>
-  </si>
-  <si>
-    <t>Péptido 1</t>
-  </si>
-  <si>
-    <t>Péptido 2</t>
-  </si>
-  <si>
-    <t>Péptido 3</t>
-  </si>
-  <si>
-    <t>Péptido 4</t>
-  </si>
-  <si>
-    <t>Concentración ug/mL</t>
-  </si>
-  <si>
-    <t>Absorbancia a 450nm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,8 +54,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,34 +350,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>peptido</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>concentracion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>absorbancia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -443,9 +387,11 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -454,9 +400,11 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -465,20 +413,24 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -487,20 +439,24 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.81499999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1</v>
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -509,42 +465,50 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1.5529999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
+        <v>1.553</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1.5589999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
+        <v>1.559</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1.3779999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1</v>
+        <v>1.378</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -553,64 +517,76 @@
         <v>1.052</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>1.4339999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1</v>
+        <v>1.434</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B14">
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
+        <v>1.664</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>1.3380000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1</v>
+        <v>1.338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
       <c r="C16">
-        <v>1.2030000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -619,20 +595,24 @@
         <v>1.609</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B19">
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>2.4449999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1</v>
+        <v>2.445</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B20">
         <v>0.5</v>
@@ -641,53 +621,63 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>1.3779999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1</v>
+        <v>1.378</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B22">
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>1.8520000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1</v>
+        <v>1.852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B23">
         <v>0.5</v>
       </c>
       <c r="C23">
-        <v>1.2170000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>1</v>
+        <v>1.217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.5</v>
       </c>
       <c r="C24">
-        <v>1.5720000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1</v>
+        <v>1.572</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.5</v>
@@ -696,20 +686,24 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>1.6120000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1</v>
+        <v>1.612</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B27">
         <v>0.5</v>
@@ -718,31 +712,37 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>1</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B28">
         <v>0.5</v>
       </c>
       <c r="C28">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>1</v>
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B29">
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1</v>
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -751,20 +751,24 @@
         <v>1.351</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>1</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B31">
         <v>0.5</v>
       </c>
       <c r="C31">
-        <v>1.1950000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>1</v>
+        <v>1.195</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B32">
         <v>0.5</v>
@@ -773,9 +777,11 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>1</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B33">
         <v>0.5</v>
@@ -784,64 +790,76 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>1</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B34">
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>1.5009999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>1</v>
+        <v>1.501</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B35">
         <v>0.5</v>
       </c>
       <c r="C35">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1</v>
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B36">
         <v>0.5</v>
       </c>
       <c r="C36">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1</v>
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B37">
         <v>0.5</v>
       </c>
       <c r="C37">
-        <v>1.4350000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1</v>
+        <v>1.435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B38">
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>1</v>
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B39">
         <v>0.5</v>
@@ -850,31 +868,37 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B40">
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>1</v>
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B41">
         <v>0.5</v>
       </c>
       <c r="C41">
-        <v>1.8089999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>1</v>
+        <v>1.809</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -883,9 +907,11 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -894,20 +920,24 @@
         <v>1.522</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>1</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B44">
         <v>0.5</v>
       </c>
       <c r="C44">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>1</v>
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B45">
         <v>0.5</v>
@@ -916,9 +946,11 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>1</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -927,9 +959,11 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>1</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -938,9 +972,11 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>1</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -949,31 +985,37 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>1</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B49">
         <v>0.5</v>
       </c>
       <c r="C49">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>1</v>
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B50">
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>1.0880000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>1</v>
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -982,9 +1024,11 @@
         <v>1.484</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>1</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B52">
         <v>1</v>
@@ -993,20 +1037,24 @@
         <v>1.514</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>1</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1.4870000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>1</v>
+        <v>1.487</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1015,20 +1063,24 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>1</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1.3360000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>1</v>
+        <v>1.336</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1037,9 +1089,11 @@
         <v>1.458</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1048,9 +1102,11 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>1</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1059,9 +1115,11 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>1</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1070,97 +1128,115 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>1</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1.1120000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>1</v>
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1.4390000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>1</v>
+        <v>1.439</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>1</v>
+        <v>1.187</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1.3660000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>1</v>
+        <v>1.366</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1.5369999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>1</v>
+        <v>1.537</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1.2190000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>1</v>
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1.3580000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>1</v>
+        <v>1.358</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0.74399999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>1</v>
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1169,53 +1245,63 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>1</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1.7549999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>1</v>
+        <v>1.755</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1.2070000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>1</v>
+        <v>1.207</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1.2749999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>1</v>
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1.3440000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>1</v>
+        <v>1.344</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1224,9 +1310,11 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>1</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1235,31 +1323,37 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>1</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1.0229999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>1</v>
+        <v>1.023</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1.4019999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>1</v>
+        <v>1.402</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1268,42 +1362,50 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>1</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>1</v>
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>2.0819999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1</v>
+        <v>2.082</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>1.2529999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>1</v>
+        <v>1.253</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1312,75 +1414,89 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>1</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1.1859999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>1</v>
+        <v>1.186</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>2.0249999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>1</v>
+        <v>2.025</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1.7210000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>1</v>
+        <v>1.721</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>1</v>
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1.1339999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>1</v>
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1.1950000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>1</v>
+        <v>1.195</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1389,9 +1505,11 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>1</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1400,9 +1518,11 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>1</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1411,9 +1531,11 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>1</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1422,9 +1544,11 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>1</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1433,9 +1557,11 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>1</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1444,31 +1570,37 @@
         <v>1.593</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>1</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1.0940000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>1</v>
+        <v>1.094</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1.3069999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>1</v>
+        <v>1.307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1477,64 +1609,76 @@
         <v>1.337</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>1</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>1</v>
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1.1950000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>1</v>
+        <v>1.195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>1</v>
+        <v>0.587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1.9910000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>1</v>
+        <v>1.991</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Péptido 1</t>
+        </is>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1.7290000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>2</v>
+        <v>1.729</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B102">
         <v>0.5</v>
@@ -1543,9 +1687,11 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>2</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B103">
         <v>0.5</v>
@@ -1554,9 +1700,11 @@
         <v>1.202</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>2</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B104">
         <v>0.5</v>
@@ -1565,31 +1713,37 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>2</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B105">
         <v>0.5</v>
       </c>
       <c r="C105">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>2</v>
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B106">
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>2</v>
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B107">
         <v>0.5</v>
@@ -1598,53 +1752,63 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>2</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B108">
         <v>0.5</v>
       </c>
       <c r="C108">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>2</v>
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B109">
         <v>0.5</v>
       </c>
       <c r="C109">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>2</v>
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B110">
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>0.77700000000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>2</v>
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B111">
         <v>0.5</v>
       </c>
       <c r="C111">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>2</v>
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B112">
         <v>0.5</v>
@@ -1653,9 +1817,11 @@
         <v>1.411</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>2</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B113">
         <v>0.5</v>
@@ -1664,31 +1830,37 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>2</v>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B114">
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>1.4039999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>2</v>
+        <v>1.404</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B115">
         <v>0.5</v>
       </c>
       <c r="C115">
-        <v>1.1739999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>2</v>
+        <v>1.174</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B116">
         <v>0.5</v>
@@ -1697,9 +1869,11 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>2</v>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -1708,9 +1882,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>2</v>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B118">
         <v>0.5</v>
@@ -1719,108 +1895,128 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>2</v>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B119">
         <v>0.5</v>
       </c>
       <c r="C119">
-        <v>1.2230000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>2</v>
+        <v>1.223</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B120">
         <v>0.5</v>
       </c>
       <c r="C120">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>2</v>
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B121">
         <v>0.5</v>
       </c>
       <c r="C121">
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>2</v>
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B122">
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>2</v>
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B123">
         <v>0.5</v>
       </c>
       <c r="C123">
-        <v>1.1779999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>2</v>
+        <v>1.178</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B124">
         <v>0.5</v>
       </c>
       <c r="C124">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>2</v>
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B125">
         <v>0.5</v>
       </c>
       <c r="C125">
-        <v>0.75900000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>2</v>
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B126">
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>0.85799999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>2</v>
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B127">
         <v>0.5</v>
       </c>
       <c r="C127">
-        <v>1.1819999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>2</v>
+        <v>1.182</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B128">
         <v>0.5</v>
@@ -1829,9 +2025,11 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>2</v>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B129">
         <v>0.5</v>
@@ -1840,75 +2038,89 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>2</v>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B130">
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>1.1020000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>2</v>
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B131">
         <v>0.5</v>
       </c>
       <c r="C131">
-        <v>1.3240000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>2</v>
+        <v>1.324</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B132">
         <v>0.5</v>
       </c>
       <c r="C132">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>2</v>
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B133">
         <v>0.5</v>
       </c>
       <c r="C133">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>2</v>
+        <v>0.857</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B134">
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>1.1160000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>2</v>
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B135">
         <v>0.5</v>
       </c>
       <c r="C135">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>2</v>
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B136">
         <v>0.5</v>
@@ -1917,9 +2129,11 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>2</v>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B137">
         <v>0.5</v>
@@ -1928,9 +2142,11 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>2</v>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B138">
         <v>0.5</v>
@@ -1939,20 +2155,24 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>2</v>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B139">
         <v>0.5</v>
       </c>
       <c r="C139">
-        <v>1.2729999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>2</v>
+        <v>1.273</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B140">
         <v>0.5</v>
@@ -1961,31 +2181,37 @@
         <v>1.244</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>2</v>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B141">
         <v>0.5</v>
       </c>
       <c r="C141">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>2</v>
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B142">
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>1.5169999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>2</v>
+        <v>1.517</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B143">
         <v>0.5</v>
@@ -1994,20 +2220,24 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>2</v>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B144">
         <v>0.5</v>
       </c>
       <c r="C144">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>2</v>
+        <v>0.846</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B145">
         <v>0.5</v>
@@ -2016,20 +2246,24 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>2</v>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B146">
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>1.1719999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>2</v>
+        <v>1.172</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B147">
         <v>0.5</v>
@@ -2038,20 +2272,24 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>2</v>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B148">
         <v>0.5</v>
       </c>
       <c r="C148">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>2</v>
+        <v>0.723</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B149">
         <v>0.5</v>
@@ -2060,9 +2298,11 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>2</v>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B150">
         <v>0.5</v>
@@ -2071,42 +2311,50 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>2</v>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B151">
         <v>0.5</v>
       </c>
       <c r="C151">
-        <v>1.2490000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>2</v>
+        <v>1.249</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>2.0350000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>2</v>
+        <v>2.035</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>2.6880000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>2</v>
+        <v>2.688</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2115,9 +2363,11 @@
         <v>2.008</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>2</v>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2126,42 +2376,50 @@
         <v>1.903</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>2</v>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>2.5329999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>2</v>
+        <v>2.533</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>2.1539999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>2</v>
+        <v>2.154</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>2.0990000000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>2</v>
+        <v>2.099</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2170,9 +2428,11 @@
         <v>2.137</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>2</v>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2181,9 +2441,11 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>2</v>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2192,9 +2454,11 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>2</v>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2203,53 +2467,63 @@
         <v>2.121</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>2</v>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163">
-        <v>2.2650000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>2</v>
+        <v>2.265</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>2.1389999999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>2</v>
+        <v>2.139</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165">
-        <v>2.2130000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>2</v>
+        <v>2.213</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>2.2189999999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>2</v>
+        <v>2.219</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2258,9 +2532,11 @@
         <v>1.978</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>2</v>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2269,9 +2545,11 @@
         <v>2.431</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>2</v>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2280,20 +2558,24 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>2</v>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>2</v>
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2302,31 +2584,37 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>2</v>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>1.9810000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>2</v>
+        <v>1.981</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>2.6389999999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>2</v>
+        <v>2.639</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2335,31 +2623,37 @@
         <v>2.359</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>2</v>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>2.3410000000000002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>2</v>
+        <v>2.341</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>2.0979999999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>2</v>
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2368,75 +2662,89 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>2</v>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>2.1539999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>2</v>
+        <v>2.154</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>2.4239999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>2</v>
+        <v>2.424</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>2.3170000000000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>2</v>
+        <v>2.317</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>1.9370000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>2</v>
+        <v>1.937</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>2.1709999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>2</v>
+        <v>2.171</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>2.1549999999999998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>2</v>
+        <v>2.155</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B184">
         <v>1</v>
@@ -2445,42 +2753,50 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>2</v>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>2</v>
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>2.2080000000000002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>2</v>
+        <v>2.208</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187">
-        <v>2.1909999999999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>2</v>
+        <v>2.191</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B188">
         <v>1</v>
@@ -2489,20 +2805,24 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>2</v>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>2.3420000000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>2</v>
+        <v>2.342</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B190">
         <v>1</v>
@@ -2511,31 +2831,37 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>2</v>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>2.0009999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>2</v>
+        <v>2.001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>2.4249999999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>2</v>
+        <v>2.425</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B193">
         <v>1</v>
@@ -2544,20 +2870,24 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>2</v>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>2.0979999999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>2</v>
+        <v>2.098</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B195">
         <v>1</v>
@@ -2566,53 +2896,63 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>2</v>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>2.5859999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>2</v>
+        <v>2.586</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197">
-        <v>2.0470000000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>2</v>
+        <v>2.047</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>2.2440000000000002</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>2</v>
+        <v>2.244</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>2.5070000000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>2</v>
+        <v>2.507</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B200">
         <v>1</v>
@@ -2621,9 +2961,11 @@
         <v>2.012</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>2</v>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Péptido 2</t>
+        </is>
       </c>
       <c r="B201">
         <v>1</v>
@@ -2632,9 +2974,11 @@
         <v>2.165</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>3</v>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B202">
         <v>0.5</v>
@@ -2643,86 +2987,102 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>3</v>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B203">
         <v>0.5</v>
       </c>
       <c r="C203">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>3</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B204">
         <v>0.5</v>
       </c>
       <c r="C204">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>3</v>
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B205">
         <v>0.5</v>
       </c>
       <c r="C205">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>3</v>
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B206">
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>3</v>
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B207">
         <v>0.5</v>
       </c>
       <c r="C207">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>3</v>
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B208">
         <v>0.5</v>
       </c>
       <c r="C208">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>3</v>
+        <v>0.5679999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B209">
         <v>0.5</v>
       </c>
       <c r="C209">
-        <v>0.77700000000000002</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>3</v>
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B210">
         <v>0.5</v>
@@ -2731,86 +3091,102 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>3</v>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B211">
         <v>0.5</v>
       </c>
       <c r="C211">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>3</v>
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B212">
         <v>0.5</v>
       </c>
       <c r="C212">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>3</v>
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B213">
         <v>0.5</v>
       </c>
       <c r="C213">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>3</v>
+        <v>0.634</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B214">
         <v>0.5</v>
       </c>
       <c r="C214">
-        <v>0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>3</v>
+        <v>0.639</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B215">
         <v>0.5</v>
       </c>
       <c r="C215">
-        <v>0.61799999999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>3</v>
+        <v>0.618</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B216">
         <v>0.5</v>
       </c>
       <c r="C216">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>3</v>
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B217">
         <v>0.5</v>
       </c>
       <c r="C217">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>3</v>
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B218">
         <v>0.5</v>
@@ -2819,31 +3195,37 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>3</v>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B219">
         <v>0.5</v>
       </c>
       <c r="C219">
-        <v>0.60499999999999998</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>3</v>
+        <v>0.605</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B220">
         <v>0.5</v>
       </c>
       <c r="C220">
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>3</v>
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B221">
         <v>0.5</v>
@@ -2852,64 +3234,76 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>3</v>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B222">
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>0.59899999999999998</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>3</v>
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B223">
         <v>0.5</v>
       </c>
       <c r="C223">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>3</v>
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B224">
         <v>0.5</v>
       </c>
       <c r="C224">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>3</v>
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B225">
         <v>0.5</v>
       </c>
       <c r="C225">
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>3</v>
+        <v>0.698</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B226">
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>3</v>
+        <v>0.591</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B227">
         <v>0.5</v>
@@ -2918,108 +3312,128 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>3</v>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B228">
         <v>0.5</v>
       </c>
       <c r="C228">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>3</v>
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B229">
         <v>0.5</v>
       </c>
       <c r="C229">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>3</v>
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B230">
         <v>0.5</v>
       </c>
       <c r="C230">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>3</v>
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B231">
         <v>0.5</v>
       </c>
       <c r="C231">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>3</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B232">
         <v>0.5</v>
       </c>
       <c r="C232">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>3</v>
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B233">
         <v>0.5</v>
       </c>
       <c r="C233">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>3</v>
+        <v>0.588</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B234">
         <v>0.5</v>
       </c>
       <c r="C234">
-        <v>0.54500000000000004</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>3</v>
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B235">
         <v>0.5</v>
       </c>
       <c r="C235">
-        <v>0.59899999999999998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>3</v>
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B236">
         <v>0.5</v>
       </c>
       <c r="C236">
-        <v>0.51800000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>3</v>
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B237">
         <v>0.5</v>
@@ -3028,75 +3442,89 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>3</v>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B238">
         <v>0.5</v>
       </c>
       <c r="C238">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>3</v>
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B239">
         <v>0.5</v>
       </c>
       <c r="C239">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>3</v>
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B240">
         <v>0.5</v>
       </c>
       <c r="C240">
-        <v>0.59899999999999998</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>3</v>
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B241">
         <v>0.5</v>
       </c>
       <c r="C241">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>3</v>
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B242">
         <v>0.5</v>
       </c>
       <c r="C242">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>3</v>
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B243">
         <v>0.5</v>
       </c>
       <c r="C243">
-        <v>0.59699999999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>3</v>
+        <v>0.597</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B244">
         <v>0.5</v>
@@ -3105,20 +3533,24 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>3</v>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B245">
         <v>0.5</v>
       </c>
       <c r="C245">
-        <v>0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>3</v>
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B246">
         <v>0.5</v>
@@ -3127,20 +3559,24 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>3</v>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B247">
         <v>0.5</v>
       </c>
       <c r="C247">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>3</v>
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B248">
         <v>0.5</v>
@@ -3149,31 +3585,37 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>3</v>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B249">
         <v>0.5</v>
       </c>
       <c r="C249">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>3</v>
+        <v>0.533</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B250">
         <v>0.5</v>
       </c>
       <c r="C250">
-        <v>0.55200000000000005</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>3</v>
+        <v>0.552</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B251">
         <v>0.5</v>
@@ -3182,20 +3624,24 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>3</v>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>3</v>
+        <v>0.773</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B253">
         <v>1</v>
@@ -3204,97 +3650,115 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>3</v>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
       <c r="C254">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>3</v>
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>3</v>
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>3</v>
+        <v>0.737</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>3</v>
+        <v>0.831</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>3</v>
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>3</v>
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>3</v>
+        <v>0.673</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>3</v>
+        <v>0.804</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B262">
         <v>1</v>
@@ -3303,97 +3767,115 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>3</v>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
       <c r="C263">
-        <v>0.65100000000000002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>3</v>
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
       <c r="C264">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>3</v>
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>3</v>
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>3</v>
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>3</v>
+        <v>0.677</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>3</v>
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>3</v>
+        <v>0.764</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>3</v>
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B271">
         <v>1</v>
@@ -3402,108 +3884,128 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>3</v>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>3</v>
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>3</v>
+        <v>0.679</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>3</v>
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>3</v>
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>3</v>
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
       <c r="C277">
-        <v>0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>3</v>
+        <v>0.701</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>3</v>
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>3</v>
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>3</v>
+        <v>0.756</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B281">
         <v>1</v>
@@ -3512,42 +4014,50 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>3</v>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>3</v>
+        <v>0.737</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>3</v>
+        <v>0.8159999999999999</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284">
-        <v>0.79900000000000004</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>3</v>
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B285">
         <v>1</v>
@@ -3556,174 +4066,206 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>3</v>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B286">
         <v>1</v>
       </c>
       <c r="C286">
-        <v>0.69099999999999995</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>3</v>
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>3</v>
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288">
-        <v>0.69899999999999995</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>3</v>
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
       <c r="C289">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>3</v>
+        <v>0.706</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>3</v>
+        <v>0.704</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>3</v>
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
       <c r="C292">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>3</v>
+        <v>0.846</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>3</v>
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
       <c r="C294">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>3</v>
+        <v>0.706</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
       <c r="C295">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>3</v>
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>3</v>
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>3</v>
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>3</v>
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
       <c r="C299">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>3</v>
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300">
-        <v>0.66800000000000004</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>3</v>
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Péptido 3</t>
+        </is>
       </c>
       <c r="B301">
         <v>1</v>
@@ -3732,9 +4274,11 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>4</v>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B302">
         <v>0.5</v>
@@ -3743,42 +4287,50 @@
         <v>2.286</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>4</v>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B303">
         <v>0.5</v>
       </c>
       <c r="C303">
-        <v>2.4350000000000001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>4</v>
+        <v>2.435</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B304">
         <v>0.5</v>
       </c>
       <c r="C304">
-        <v>2.1349999999999998</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>4</v>
+        <v>2.135</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B305">
         <v>0.5</v>
       </c>
       <c r="C305">
-        <v>2.4020000000000001</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>4</v>
+        <v>2.402</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B306">
         <v>0.5</v>
@@ -3787,86 +4339,102 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>4</v>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B307">
         <v>0.5</v>
       </c>
       <c r="C307">
-        <v>2.2509999999999999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>4</v>
+        <v>2.251</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B308">
         <v>0.5</v>
       </c>
       <c r="C308">
-        <v>2.2869999999999999</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>4</v>
+        <v>2.287</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B309">
         <v>0.5</v>
       </c>
       <c r="C309">
-        <v>2.4430000000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>4</v>
+        <v>2.443</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B310">
         <v>0.5</v>
       </c>
       <c r="C310">
-        <v>2.4260000000000002</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>4</v>
+        <v>2.426</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B311">
         <v>0.5</v>
       </c>
       <c r="C311">
-        <v>2.2989999999999999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>4</v>
+        <v>2.299</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B312">
         <v>0.5</v>
       </c>
       <c r="C312">
-        <v>2.2810000000000001</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>4</v>
+        <v>2.281</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B313">
         <v>0.5</v>
       </c>
       <c r="C313">
-        <v>2.3839999999999999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>4</v>
+        <v>2.384</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B314">
         <v>0.5</v>
@@ -3875,9 +4443,11 @@
         <v>2.298</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>4</v>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B315">
         <v>0.5</v>
@@ -3886,130 +4456,154 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>4</v>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B316">
         <v>0.5</v>
       </c>
       <c r="C316">
-        <v>2.2090000000000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>4</v>
+        <v>2.209</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B317">
         <v>0.5</v>
       </c>
       <c r="C317">
-        <v>2.3980000000000001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>4</v>
+        <v>2.398</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B318">
         <v>0.5</v>
       </c>
       <c r="C318">
-        <v>2.2829999999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>4</v>
+        <v>2.283</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B319">
         <v>0.5</v>
       </c>
       <c r="C319">
-        <v>2.2679999999999998</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>4</v>
+        <v>2.268</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B320">
         <v>0.5</v>
       </c>
       <c r="C320">
-        <v>2.2919999999999998</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>4</v>
+        <v>2.292</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B321">
         <v>0.5</v>
       </c>
       <c r="C321">
-        <v>2.1379999999999999</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>4</v>
+        <v>2.138</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B322">
         <v>0.5</v>
       </c>
       <c r="C322">
-        <v>2.2749999999999999</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>4</v>
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B323">
         <v>0.5</v>
       </c>
       <c r="C323">
-        <v>2.3119999999999998</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>4</v>
+        <v>2.312</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B324">
         <v>0.5</v>
       </c>
       <c r="C324">
-        <v>2.2930000000000001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>4</v>
+        <v>2.293</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B325">
         <v>0.5</v>
       </c>
       <c r="C325">
-        <v>2.3109999999999999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>4</v>
+        <v>2.311</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B326">
         <v>0.5</v>
       </c>
       <c r="C326">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>4</v>
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B327">
         <v>0.5</v>
@@ -4018,20 +4612,24 @@
         <v>2.169</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>4</v>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B328">
         <v>0.5</v>
       </c>
       <c r="C328">
-        <v>2.1539999999999999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>4</v>
+        <v>2.154</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B329">
         <v>0.5</v>
@@ -4040,20 +4638,24 @@
         <v>2.198</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>4</v>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B330">
         <v>0.5</v>
       </c>
       <c r="C330">
-        <v>2.2629999999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>4</v>
+        <v>2.263</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B331">
         <v>0.5</v>
@@ -4062,9 +4664,11 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>4</v>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B332">
         <v>0.5</v>
@@ -4073,42 +4677,50 @@
         <v>2.427</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>4</v>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B333">
         <v>0.5</v>
       </c>
       <c r="C333">
-        <v>2.4359999999999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>4</v>
+        <v>2.436</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B334">
         <v>0.5</v>
       </c>
       <c r="C334">
-        <v>2.5840000000000001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>4</v>
+        <v>2.584</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B335">
         <v>0.5</v>
       </c>
       <c r="C335">
-        <v>2.0539999999999998</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>4</v>
+        <v>2.054</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B336">
         <v>0.5</v>
@@ -4117,9 +4729,11 @@
         <v>2.298</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>4</v>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B337">
         <v>0.5</v>
@@ -4128,31 +4742,37 @@
         <v>2.246</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>4</v>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B338">
         <v>0.5</v>
       </c>
       <c r="C338">
-        <v>2.1190000000000002</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>4</v>
+        <v>2.119</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B339">
         <v>0.5</v>
       </c>
       <c r="C339">
-        <v>2.1669999999999998</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>4</v>
+        <v>2.167</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B340">
         <v>0.5</v>
@@ -4161,9 +4781,11 @@
         <v>2.157</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>4</v>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B341">
         <v>0.5</v>
@@ -4172,53 +4794,63 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>4</v>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B342">
         <v>0.5</v>
       </c>
       <c r="C342">
-        <v>2.3130000000000002</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>4</v>
+        <v>2.313</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B343">
         <v>0.5</v>
       </c>
       <c r="C343">
-        <v>2.4260000000000002</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>4</v>
+        <v>2.426</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B344">
         <v>0.5</v>
       </c>
       <c r="C344">
-        <v>2.2730000000000001</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>4</v>
+        <v>2.273</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B345">
         <v>0.5</v>
       </c>
       <c r="C345">
-        <v>2.2330000000000001</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>4</v>
+        <v>2.233</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B346">
         <v>0.5</v>
@@ -4227,9 +4859,11 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>4</v>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B347">
         <v>0.5</v>
@@ -4238,9 +4872,11 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>4</v>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B348">
         <v>0.5</v>
@@ -4249,31 +4885,37 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>4</v>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B349">
         <v>0.5</v>
       </c>
       <c r="C349">
-        <v>2.1459999999999999</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>4</v>
+        <v>2.146</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B350">
         <v>0.5</v>
       </c>
       <c r="C350">
-        <v>2.3450000000000002</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>4</v>
+        <v>2.345</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B351">
         <v>0.5</v>
@@ -4282,42 +4924,50 @@
         <v>2.169</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>4</v>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B352">
         <v>1</v>
       </c>
       <c r="C352">
-        <v>2.4830000000000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>4</v>
+        <v>2.483</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B353">
         <v>1</v>
       </c>
       <c r="C353">
-        <v>2.3220000000000001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>4</v>
+        <v>2.322</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
       <c r="C354">
-        <v>2.0619999999999998</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>4</v>
+        <v>2.062</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B355">
         <v>1</v>
@@ -4326,53 +4976,63 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>4</v>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
       <c r="C356">
-        <v>1.9850000000000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>4</v>
+        <v>1.985</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B357">
         <v>1</v>
       </c>
       <c r="C357">
-        <v>2.1930000000000001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>4</v>
+        <v>2.193</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
       <c r="C358">
-        <v>2.1110000000000002</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>4</v>
+        <v>2.111</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B359">
         <v>1</v>
       </c>
       <c r="C359">
-        <v>2.1869999999999998</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>4</v>
+        <v>2.187</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B360">
         <v>1</v>
@@ -4381,20 +5041,24 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>4</v>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
       <c r="C361">
-        <v>2.5529999999999999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>4</v>
+        <v>2.553</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B362">
         <v>1</v>
@@ -4403,64 +5067,76 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>4</v>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
       <c r="C363">
-        <v>2.6379999999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>4</v>
+        <v>2.638</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
       <c r="C364">
-        <v>2.4420000000000002</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>4</v>
+        <v>2.442</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B365">
         <v>1</v>
       </c>
       <c r="C365">
-        <v>2.5880000000000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>4</v>
+        <v>2.588</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
       <c r="C366">
-        <v>2.3039999999999998</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>4</v>
+        <v>2.304</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B367">
         <v>1</v>
       </c>
       <c r="C367">
-        <v>2.4860000000000002</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>4</v>
+        <v>2.486</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B368">
         <v>1</v>
@@ -4469,9 +5145,11 @@
         <v>2.415</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>4</v>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B369">
         <v>1</v>
@@ -4480,64 +5158,76 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>4</v>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B370">
         <v>1</v>
       </c>
       <c r="C370">
-        <v>2.3029999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>4</v>
+        <v>2.303</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B371">
         <v>1</v>
       </c>
       <c r="C371">
-        <v>2.1349999999999998</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>4</v>
+        <v>2.135</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B372">
         <v>1</v>
       </c>
       <c r="C372">
-        <v>2.6259999999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>4</v>
+        <v>2.626</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B373">
         <v>1</v>
       </c>
       <c r="C373">
-        <v>2.6589999999999998</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>4</v>
+        <v>2.659</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
       <c r="C374">
-        <v>2.3109999999999999</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>4</v>
+        <v>2.311</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B375">
         <v>1</v>
@@ -4546,20 +5236,24 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>4</v>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B376">
         <v>1</v>
       </c>
       <c r="C376">
-        <v>2.4009999999999998</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>4</v>
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B377">
         <v>1</v>
@@ -4568,174 +5262,206 @@
         <v>2.593</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>4</v>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B378">
         <v>1</v>
       </c>
       <c r="C378">
-        <v>2.6349999999999998</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>4</v>
+        <v>2.635</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B379">
         <v>1</v>
       </c>
       <c r="C379">
-        <v>2.4449999999999998</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>4</v>
+        <v>2.445</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B380">
         <v>1</v>
       </c>
       <c r="C380">
-        <v>2.4169999999999998</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>4</v>
+        <v>2.417</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B381">
         <v>1</v>
       </c>
       <c r="C381">
-        <v>2.4809999999999999</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>4</v>
+        <v>2.481</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B382">
         <v>1</v>
       </c>
       <c r="C382">
-        <v>2.7040000000000002</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>4</v>
+        <v>2.704</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B383">
         <v>1</v>
       </c>
       <c r="C383">
-        <v>2.2650000000000001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>4</v>
+        <v>2.265</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
       <c r="C384">
-        <v>2.0590000000000002</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>4</v>
+        <v>2.059</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
       <c r="C385">
-        <v>2.4609999999999999</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>4</v>
+        <v>2.461</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
-        <v>2.4079999999999999</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>4</v>
+        <v>2.408</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B387">
         <v>1</v>
       </c>
       <c r="C387">
-        <v>2.3650000000000002</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>4</v>
+        <v>2.365</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B388">
         <v>1</v>
       </c>
       <c r="C388">
-        <v>2.3570000000000002</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>4</v>
+        <v>2.357</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B389">
         <v>1</v>
       </c>
       <c r="C389">
-        <v>2.3460000000000001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>4</v>
+        <v>2.346</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
       <c r="C390">
-        <v>2.2189999999999999</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>4</v>
+        <v>2.219</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B391">
         <v>1</v>
       </c>
       <c r="C391">
-        <v>2.3069999999999999</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>4</v>
+        <v>2.307</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
-        <v>2.6160000000000001</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>4</v>
+        <v>2.616</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B393">
         <v>1</v>
@@ -4744,42 +5470,50 @@
         <v>2.661</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>4</v>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
       <c r="C394">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>4</v>
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
       <c r="C395">
-        <v>2.5760000000000001</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>4</v>
+        <v>2.576</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B396">
         <v>1</v>
       </c>
       <c r="C396">
-        <v>2.2559999999999998</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>4</v>
+        <v>2.256</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B397">
         <v>1</v>
@@ -4788,9 +5522,11 @@
         <v>2.488</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>4</v>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B398">
         <v>1</v>
@@ -4799,20 +5535,24 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>4</v>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
       <c r="C399">
-        <v>2.6269999999999998</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>4</v>
+        <v>2.627</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B400">
         <v>1</v>
@@ -4821,15 +5561,17 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>4</v>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Péptido 4</t>
+        </is>
       </c>
       <c r="B401">
         <v>1</v>
       </c>
       <c r="C401">
-        <v>2.3340000000000001</v>
+        <v>2.334</v>
       </c>
     </row>
   </sheetData>
